--- a/planilhas/relatorio_comissionamento.xlsx
+++ b/planilhas/relatorio_comissionamento.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://qrenergiacom-my.sharepoint.com/personal/joao_qrenergia_com/Documents/Projetos QR Energia/Projetos em aberto/053 - MARIA DE LOURDES RABELO FREITAS/VISTORIA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\automatizador_planilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="114" documentId="13_ncr:1_{677D890E-A882-4A83-8818-9CF14D2E3385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F74FA923-A72C-4706-B514-B847753843FD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56F9926-9ED2-4F43-ACD5-74704CB1EAAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ensaios" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="157">
   <si>
     <t>ENSAIOS DE COMISSIONAMENTO CONFORME ABNT NBR 16274</t>
   </si>
@@ -923,21 +923,6 @@
   </si>
   <si>
     <t>joao@qrenergia.com</t>
-  </si>
-  <si>
-    <t>AV GLEYDSON LUCAS , S/N</t>
-  </si>
-  <si>
-    <t>PQ JAIR</t>
-  </si>
-  <si>
-    <t>SÃO JOSÉ DE RIBAMAR</t>
-  </si>
-  <si>
-    <t>MARIA DE LOURDES RABELO FREITAS</t>
-  </si>
-  <si>
-    <t>65.110-000</t>
   </si>
 </sst>
 </file>
@@ -1707,112 +1692,90 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1820,27 +1783,49 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -2824,8 +2809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y324"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A53" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2882,26 +2867,26 @@
     </row>
     <row r="2" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="67" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="77"/>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="78"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="68"/>
       <c r="T2" s="5"/>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
@@ -2911,26 +2896,26 @@
     </row>
     <row r="3" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="80"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="70"/>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="71"/>
       <c r="T3" s="5"/>
       <c r="U3" s="5"/>
       <c r="V3" s="5"/>
@@ -2940,24 +2925,24 @@
     </row>
     <row r="4" spans="1:25" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="S4" s="46"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
       <c r="T4" s="5"/>
       <c r="U4" s="5"/>
       <c r="V4" s="5"/>
@@ -2967,26 +2952,26 @@
     </row>
     <row r="5" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="71"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="42"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
@@ -2999,29 +2984,25 @@
       <c r="B6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="65" t="s">
-        <v>160</v>
-      </c>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="83"/>
-      <c r="L6" s="68" t="s">
+      <c r="C6" s="73"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="49"/>
+      <c r="M6" s="34"/>
       <c r="N6" s="30"/>
-      <c r="O6" s="57">
-        <v>3008249643</v>
-      </c>
-      <c r="P6" s="49"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="49"/>
-      <c r="S6" s="72"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="78"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
@@ -3034,29 +3015,29 @@
       <c r="B7" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="73" t="s">
         <v>155</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
       <c r="F7" s="30"/>
       <c r="G7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="75" t="s">
+      <c r="H7" s="77" t="s">
         <v>156</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="72"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
+      <c r="O7" s="34"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="78"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
@@ -3069,29 +3050,25 @@
       <c r="B8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="65" t="s">
-        <v>157</v>
-      </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
       <c r="K8" s="30"/>
-      <c r="L8" s="68" t="s">
+      <c r="L8" s="76" t="s">
         <v>33</v>
       </c>
       <c r="M8" s="30"/>
-      <c r="N8" s="65" t="s">
-        <v>158</v>
-      </c>
-      <c r="O8" s="49"/>
-      <c r="P8" s="49"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="49"/>
-      <c r="S8" s="72"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="78"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
@@ -3104,33 +3081,29 @@
       <c r="B9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="74" t="s">
-        <v>161</v>
-      </c>
-      <c r="D9" s="62"/>
+      <c r="C9" s="84"/>
+      <c r="D9" s="85"/>
       <c r="E9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="69" t="s">
+      <c r="F9" s="81"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="N9" s="34"/>
-      <c r="O9" s="67" t="s">
+      <c r="N9" s="32"/>
+      <c r="O9" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-      <c r="S9" s="73"/>
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="36"/>
+      <c r="S9" s="82"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
@@ -3140,26 +3113,26 @@
     </row>
     <row r="10" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
-      <c r="B10" s="70" t="s">
+      <c r="B10" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="71"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="42"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
@@ -3172,25 +3145,25 @@
       <c r="B11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="65" t="s">
+      <c r="C11" s="73" t="s">
         <v>151</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="49"/>
-      <c r="O11" s="49"/>
-      <c r="P11" s="49"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="49"/>
-      <c r="S11" s="72"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="78"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
@@ -3203,29 +3176,29 @@
       <c r="B12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="68" t="s">
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
       <c r="M12" s="30"/>
-      <c r="N12" s="68">
+      <c r="N12" s="76">
         <v>1120173256</v>
       </c>
-      <c r="O12" s="49"/>
-      <c r="P12" s="49"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="49"/>
-      <c r="S12" s="72"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="78"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
@@ -3238,29 +3211,29 @@
       <c r="B13" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="73" t="s">
         <v>152</v>
       </c>
-      <c r="D13" s="49"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="30"/>
       <c r="F13" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="G13" s="75" t="s">
+      <c r="G13" s="77" t="s">
         <v>153</v>
       </c>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="49"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="72"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="78"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
@@ -3273,27 +3246,27 @@
       <c r="B14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="73" t="s">
         <v>154</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
       <c r="H14" s="30"/>
-      <c r="I14" s="68" t="s">
+      <c r="I14" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
       <c r="L14" s="30"/>
-      <c r="M14" s="65"/>
-      <c r="N14" s="49"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="72"/>
+      <c r="M14" s="73"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="78"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
@@ -3306,33 +3279,33 @@
       <c r="B15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="67">
+      <c r="C15" s="81">
         <v>65066320</v>
       </c>
-      <c r="D15" s="34"/>
+      <c r="D15" s="32"/>
       <c r="E15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="F15" s="67" t="s">
+      <c r="F15" s="81" t="s">
         <v>149</v>
       </c>
-      <c r="G15" s="56"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="69" t="s">
+      <c r="G15" s="36"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="67" t="s">
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="81" t="s">
         <v>150</v>
       </c>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="56"/>
-      <c r="S15" s="73"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="82"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
@@ -3342,31 +3315,31 @@
     </row>
     <row r="16" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="32"/>
-      <c r="M16" s="31" t="s">
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="N16" s="32"/>
-      <c r="O16" s="31" t="s">
+      <c r="N16" s="38"/>
+      <c r="O16" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="31" t="s">
+      <c r="P16" s="38"/>
+      <c r="Q16" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="R16" s="32"/>
+      <c r="R16" s="38"/>
       <c r="S16" s="11" t="s">
         <v>44</v>
       </c>
@@ -3379,18 +3352,18 @@
     </row>
     <row r="17" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="49"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
       <c r="L17" s="30"/>
       <c r="M17" s="29" t="s">
         <v>46</v>
@@ -3410,18 +3383,18 @@
     </row>
     <row r="18" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
       <c r="L18" s="30"/>
       <c r="M18" s="29" t="s">
         <v>46</v>
@@ -3441,18 +3414,18 @@
     </row>
     <row r="19" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="49"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
       <c r="L19" s="30"/>
       <c r="M19" s="29" t="s">
         <v>46</v>
@@ -3472,18 +3445,18 @@
     </row>
     <row r="20" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
-      <c r="K20" s="49"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="34"/>
       <c r="L20" s="30"/>
       <c r="M20" s="29" t="s">
         <v>46</v>
@@ -3503,18 +3476,18 @@
     </row>
     <row r="21" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
-      <c r="K21" s="49"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
       <c r="L21" s="30"/>
       <c r="M21" s="29" t="s">
         <v>46</v>
@@ -3534,18 +3507,18 @@
     </row>
     <row r="22" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
       <c r="L22" s="30"/>
       <c r="M22" s="29" t="s">
         <v>46</v>
@@ -3565,18 +3538,18 @@
     </row>
     <row r="23" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
-      <c r="K23" s="49"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
       <c r="L23" s="30"/>
       <c r="M23" s="29" t="s">
         <v>46</v>
@@ -3596,27 +3569,27 @@
     </row>
     <row r="24" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="56"/>
-      <c r="J24" s="56"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="33" t="s">
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="N24" s="34"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="33"/>
-      <c r="R24" s="34"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="31"/>
+      <c r="R24" s="32"/>
       <c r="S24" s="15"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
@@ -3627,31 +3600,31 @@
     </row>
     <row r="25" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="52"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="31" t="s">
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="N25" s="32"/>
-      <c r="O25" s="31" t="s">
+      <c r="N25" s="38"/>
+      <c r="O25" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="P25" s="32"/>
-      <c r="Q25" s="31" t="s">
+      <c r="P25" s="38"/>
+      <c r="Q25" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="R25" s="32"/>
+      <c r="R25" s="38"/>
       <c r="S25" s="11" t="s">
         <v>44</v>
       </c>
@@ -3664,18 +3637,18 @@
     </row>
     <row r="26" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
-      <c r="K26" s="49"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
       <c r="L26" s="30"/>
       <c r="M26" s="29" t="s">
         <v>46</v>
@@ -3695,18 +3668,18 @@
     </row>
     <row r="27" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="49"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
-      <c r="K27" s="49"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
       <c r="L27" s="30"/>
       <c r="M27" s="29" t="s">
         <v>46</v>
@@ -3726,18 +3699,18 @@
     </row>
     <row r="28" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="49"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
       <c r="L28" s="30"/>
       <c r="M28" s="29" t="s">
         <v>46</v>
@@ -3757,18 +3730,18 @@
     </row>
     <row r="29" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="49"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
-      <c r="K29" s="49"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
       <c r="L29" s="30"/>
       <c r="M29" s="29" t="s">
         <v>46</v>
@@ -3788,18 +3761,18 @@
     </row>
     <row r="30" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
-      <c r="K30" s="49"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="34"/>
       <c r="L30" s="30"/>
       <c r="M30" s="29" t="s">
         <v>46</v>
@@ -3819,18 +3792,18 @@
     </row>
     <row r="31" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
       <c r="L31" s="30"/>
       <c r="M31" s="29" t="s">
         <v>46</v>
@@ -3850,27 +3823,27 @@
     </row>
     <row r="32" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="56"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="56"/>
-      <c r="J32" s="56"/>
-      <c r="K32" s="56"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="33" t="s">
+      <c r="C32" s="36"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="N32" s="34"/>
-      <c r="O32" s="33"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="33"/>
-      <c r="R32" s="34"/>
+      <c r="N32" s="32"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="32"/>
       <c r="S32" s="15"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
@@ -3881,31 +3854,31 @@
     </row>
     <row r="33" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="C33" s="52"/>
-      <c r="D33" s="52"/>
-      <c r="E33" s="52"/>
-      <c r="F33" s="52"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="52"/>
-      <c r="I33" s="52"/>
-      <c r="J33" s="52"/>
-      <c r="K33" s="52"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="31" t="s">
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="38"/>
+      <c r="M33" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="N33" s="32"/>
-      <c r="O33" s="31" t="s">
+      <c r="N33" s="38"/>
+      <c r="O33" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="P33" s="32"/>
-      <c r="Q33" s="31" t="s">
+      <c r="P33" s="38"/>
+      <c r="Q33" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="R33" s="32"/>
+      <c r="R33" s="38"/>
       <c r="S33" s="11" t="s">
         <v>44</v>
       </c>
@@ -3918,18 +3891,18 @@
     </row>
     <row r="34" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C34" s="49"/>
-      <c r="D34" s="49"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
-      <c r="K34" s="49"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
       <c r="L34" s="30"/>
       <c r="M34" s="29" t="s">
         <v>46</v>
@@ -3949,18 +3922,18 @@
     </row>
     <row r="35" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="49"/>
-      <c r="D35" s="49"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="49"/>
-      <c r="K35" s="49"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
       <c r="L35" s="30"/>
       <c r="M35" s="29" t="s">
         <v>46</v>
@@ -3980,18 +3953,18 @@
     </row>
     <row r="36" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
       <c r="L36" s="30"/>
       <c r="M36" s="29" t="s">
         <v>46</v>
@@ -4011,18 +3984,18 @@
     </row>
     <row r="37" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
-      <c r="B37" s="53" t="s">
+      <c r="B37" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="49"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="49"/>
-      <c r="K37" s="49"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
       <c r="L37" s="30"/>
       <c r="M37" s="29" t="s">
         <v>46</v>
@@ -4042,18 +4015,18 @@
     </row>
     <row r="38" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="49"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="49"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="49"/>
-      <c r="K38" s="49"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
       <c r="L38" s="30"/>
       <c r="M38" s="29" t="s">
         <v>46</v>
@@ -4073,18 +4046,18 @@
     </row>
     <row r="39" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="53" t="s">
+      <c r="B39" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="49"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="49"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="49"/>
-      <c r="K39" s="49"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
       <c r="L39" s="30"/>
       <c r="M39" s="29" t="s">
         <v>46</v>
@@ -4104,18 +4077,18 @@
     </row>
     <row r="40" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
-      <c r="B40" s="53" t="s">
+      <c r="B40" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="49"/>
-      <c r="K40" s="49"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
       <c r="L40" s="30"/>
       <c r="M40" s="29" t="s">
         <v>46</v>
@@ -4135,18 +4108,18 @@
     </row>
     <row r="41" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="49"/>
-      <c r="K41" s="49"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
       <c r="L41" s="30"/>
       <c r="M41" s="29" t="s">
         <v>46</v>
@@ -4166,18 +4139,18 @@
     </row>
     <row r="42" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="49"/>
-      <c r="K42" s="49"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="34"/>
+      <c r="K42" s="34"/>
       <c r="L42" s="30"/>
       <c r="M42" s="29" t="s">
         <v>46</v>
@@ -4197,18 +4170,18 @@
     </row>
     <row r="43" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="49"/>
-      <c r="K43" s="49"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
       <c r="L43" s="30"/>
       <c r="M43" s="29" t="s">
         <v>46</v>
@@ -4228,18 +4201,18 @@
     </row>
     <row r="44" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
-      <c r="B44" s="53" t="s">
+      <c r="B44" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="49"/>
-      <c r="K44" s="49"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="34"/>
+      <c r="K44" s="34"/>
       <c r="L44" s="30"/>
       <c r="M44" s="29" t="s">
         <v>46</v>
@@ -4259,27 +4232,27 @@
     </row>
     <row r="45" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
-      <c r="B45" s="55" t="s">
+      <c r="B45" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="56"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="56"/>
-      <c r="G45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="56"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="33" t="s">
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="36"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="32"/>
+      <c r="M45" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="N45" s="34"/>
-      <c r="O45" s="33"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="33"/>
-      <c r="R45" s="34"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="32"/>
+      <c r="Q45" s="31"/>
+      <c r="R45" s="32"/>
       <c r="S45" s="15"/>
       <c r="T45" s="5"/>
       <c r="U45" s="5"/>
@@ -4290,31 +4263,31 @@
     </row>
     <row r="46" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
-      <c r="K46" s="52"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="31" t="s">
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="38"/>
+      <c r="M46" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="N46" s="32"/>
-      <c r="O46" s="31" t="s">
+      <c r="N46" s="38"/>
+      <c r="O46" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="31" t="s">
+      <c r="P46" s="38"/>
+      <c r="Q46" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="R46" s="32"/>
+      <c r="R46" s="38"/>
       <c r="S46" s="11" t="s">
         <v>44</v>
       </c>
@@ -4327,18 +4300,18 @@
     </row>
     <row r="47" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
-      <c r="B47" s="53" t="s">
+      <c r="B47" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="49"/>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="49"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="49"/>
-      <c r="K47" s="49"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="34"/>
+      <c r="K47" s="34"/>
       <c r="L47" s="30"/>
       <c r="M47" s="29" t="s">
         <v>46</v>
@@ -4358,18 +4331,18 @@
     </row>
     <row r="48" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
-      <c r="B48" s="53" t="s">
+      <c r="B48" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C48" s="49"/>
-      <c r="D48" s="49"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="49"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="49"/>
-      <c r="K48" s="49"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="34"/>
       <c r="L48" s="30"/>
       <c r="M48" s="29" t="s">
         <v>46</v>
@@ -4389,18 +4362,18 @@
     </row>
     <row r="49" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
-      <c r="B49" s="53" t="s">
+      <c r="B49" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="49"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="49"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="49"/>
-      <c r="K49" s="49"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="34"/>
       <c r="L49" s="30"/>
       <c r="M49" s="29" t="s">
         <v>46</v>
@@ -4420,18 +4393,18 @@
     </row>
     <row r="50" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="49"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="49"/>
-      <c r="K50" s="49"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="34"/>
+      <c r="K50" s="34"/>
       <c r="L50" s="30"/>
       <c r="M50" s="29" t="s">
         <v>46</v>
@@ -4451,18 +4424,18 @@
     </row>
     <row r="51" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
-      <c r="B51" s="53" t="s">
+      <c r="B51" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C51" s="49"/>
-      <c r="D51" s="49"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="49"/>
-      <c r="K51" s="49"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
       <c r="L51" s="30"/>
       <c r="M51" s="29" t="s">
         <v>46</v>
@@ -4482,18 +4455,18 @@
     </row>
     <row r="52" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
-      <c r="B52" s="53" t="s">
+      <c r="B52" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C52" s="49"/>
-      <c r="D52" s="49"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="49"/>
-      <c r="K52" s="49"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="J52" s="34"/>
+      <c r="K52" s="34"/>
       <c r="L52" s="30"/>
       <c r="M52" s="29" t="s">
         <v>46</v>
@@ -4513,18 +4486,18 @@
     </row>
     <row r="53" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
-      <c r="B53" s="53" t="s">
+      <c r="B53" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="49"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="49"/>
-      <c r="K53" s="49"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="J53" s="34"/>
+      <c r="K53" s="34"/>
       <c r="L53" s="30"/>
       <c r="M53" s="29" t="s">
         <v>46</v>
@@ -4544,27 +4517,27 @@
     </row>
     <row r="54" spans="1:25" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="56"/>
-      <c r="H54" s="56"/>
-      <c r="I54" s="56"/>
-      <c r="J54" s="56"/>
-      <c r="K54" s="56"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="33" t="s">
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="32"/>
+      <c r="M54" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="N54" s="34"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="34"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="34"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="32"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="32"/>
       <c r="S54" s="15"/>
       <c r="T54" s="5"/>
       <c r="U54" s="5"/>
@@ -4575,31 +4548,31 @@
     </row>
     <row r="55" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
-      <c r="B55" s="64" t="s">
+      <c r="B55" s="86" t="s">
         <v>82</v>
       </c>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
-      <c r="G55" s="52"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="52"/>
-      <c r="J55" s="52"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="31" t="s">
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="38"/>
+      <c r="M55" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="N55" s="32"/>
-      <c r="O55" s="31" t="s">
+      <c r="N55" s="38"/>
+      <c r="O55" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="31" t="s">
+      <c r="P55" s="38"/>
+      <c r="Q55" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="R55" s="32"/>
+      <c r="R55" s="38"/>
       <c r="S55" s="11" t="s">
         <v>44</v>
       </c>
@@ -4612,18 +4585,18 @@
     </row>
     <row r="56" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
-      <c r="B56" s="53" t="s">
+      <c r="B56" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="49"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="49"/>
-      <c r="K56" s="49"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
       <c r="L56" s="30"/>
       <c r="M56" s="29" t="s">
         <v>84</v>
@@ -4643,18 +4616,18 @@
     </row>
     <row r="57" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
-      <c r="B57" s="53" t="s">
+      <c r="B57" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="49"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="49"/>
-      <c r="K57" s="49"/>
+      <c r="C57" s="34"/>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="34"/>
+      <c r="G57" s="34"/>
+      <c r="H57" s="34"/>
+      <c r="I57" s="34"/>
+      <c r="J57" s="34"/>
+      <c r="K57" s="34"/>
       <c r="L57" s="30"/>
       <c r="M57" s="29" t="s">
         <v>46</v>
@@ -4674,18 +4647,18 @@
     </row>
     <row r="58" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
-      <c r="B58" s="53" t="s">
+      <c r="B58" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="49"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="49"/>
-      <c r="K58" s="49"/>
+      <c r="C58" s="34"/>
+      <c r="D58" s="34"/>
+      <c r="E58" s="34"/>
+      <c r="F58" s="34"/>
+      <c r="G58" s="34"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="34"/>
+      <c r="J58" s="34"/>
+      <c r="K58" s="34"/>
       <c r="L58" s="30"/>
       <c r="M58" s="29" t="s">
         <v>46</v>
@@ -4705,18 +4678,18 @@
     </row>
     <row r="59" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
-      <c r="B59" s="53" t="s">
+      <c r="B59" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="49"/>
-      <c r="D59" s="49"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="49"/>
-      <c r="K59" s="49"/>
+      <c r="C59" s="34"/>
+      <c r="D59" s="34"/>
+      <c r="E59" s="34"/>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" s="34"/>
+      <c r="K59" s="34"/>
       <c r="L59" s="30"/>
       <c r="M59" s="29" t="s">
         <v>46</v>
@@ -4736,18 +4709,18 @@
     </row>
     <row r="60" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
-      <c r="B60" s="53" t="s">
+      <c r="B60" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="C60" s="49"/>
-      <c r="D60" s="49"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="49"/>
-      <c r="K60" s="49"/>
+      <c r="C60" s="34"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" s="34"/>
+      <c r="K60" s="34"/>
       <c r="L60" s="30"/>
       <c r="M60" s="29" t="s">
         <v>46</v>
@@ -4767,18 +4740,18 @@
     </row>
     <row r="61" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
-      <c r="B61" s="53" t="s">
+      <c r="B61" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="C61" s="49"/>
-      <c r="D61" s="49"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="49"/>
-      <c r="K61" s="49"/>
+      <c r="C61" s="34"/>
+      <c r="D61" s="34"/>
+      <c r="E61" s="34"/>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" s="34"/>
+      <c r="K61" s="34"/>
       <c r="L61" s="30"/>
       <c r="M61" s="29" t="s">
         <v>46</v>
@@ -4798,27 +4771,27 @@
     </row>
     <row r="62" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
-      <c r="B62" s="55" t="s">
+      <c r="B62" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="C62" s="56"/>
-      <c r="D62" s="56"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="56"/>
-      <c r="H62" s="56"/>
-      <c r="I62" s="56"/>
-      <c r="J62" s="56"/>
-      <c r="K62" s="56"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="33" t="s">
+      <c r="C62" s="36"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="32"/>
+      <c r="M62" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="N62" s="34"/>
-      <c r="O62" s="33"/>
-      <c r="P62" s="34"/>
-      <c r="Q62" s="33"/>
-      <c r="R62" s="34"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="32"/>
+      <c r="Q62" s="31"/>
+      <c r="R62" s="32"/>
       <c r="S62" s="15"/>
       <c r="T62" s="5"/>
       <c r="U62" s="5"/>
@@ -4829,26 +4802,26 @@
     </row>
     <row r="63" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
-      <c r="B63" s="88" t="s">
+      <c r="B63" s="43" t="s">
         <v>89</v>
       </c>
-      <c r="C63" s="89"/>
-      <c r="D63" s="89"/>
-      <c r="E63" s="89"/>
-      <c r="F63" s="89"/>
-      <c r="G63" s="89"/>
-      <c r="H63" s="89"/>
-      <c r="I63" s="89"/>
-      <c r="J63" s="89"/>
-      <c r="K63" s="89"/>
-      <c r="L63" s="89"/>
-      <c r="M63" s="89"/>
-      <c r="N63" s="89"/>
-      <c r="O63" s="89"/>
-      <c r="P63" s="89"/>
-      <c r="Q63" s="89"/>
-      <c r="R63" s="89"/>
-      <c r="S63" s="91"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="44"/>
+      <c r="K63" s="44"/>
+      <c r="L63" s="44"/>
+      <c r="M63" s="44"/>
+      <c r="N63" s="44"/>
+      <c r="O63" s="44"/>
+      <c r="P63" s="44"/>
+      <c r="Q63" s="44"/>
+      <c r="R63" s="44"/>
+      <c r="S63" s="45"/>
       <c r="T63" s="5"/>
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
@@ -4858,26 +4831,26 @@
     </row>
     <row r="64" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
-      <c r="B64" s="51" t="s">
+      <c r="B64" s="40" t="s">
         <v>90</v>
       </c>
-      <c r="C64" s="52"/>
-      <c r="D64" s="52"/>
-      <c r="E64" s="52"/>
-      <c r="F64" s="52"/>
-      <c r="G64" s="52"/>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="52"/>
-      <c r="L64" s="52"/>
-      <c r="M64" s="52"/>
-      <c r="N64" s="52"/>
-      <c r="O64" s="52"/>
-      <c r="P64" s="52"/>
-      <c r="Q64" s="52"/>
-      <c r="R64" s="52"/>
-      <c r="S64" s="71"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="41"/>
+      <c r="O64" s="41"/>
+      <c r="P64" s="41"/>
+      <c r="Q64" s="41"/>
+      <c r="R64" s="41"/>
+      <c r="S64" s="42"/>
       <c r="T64" s="5"/>
       <c r="U64" s="5"/>
       <c r="V64" s="5"/>
@@ -4887,31 +4860,31 @@
     </row>
     <row r="65" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
-      <c r="B65" s="53" t="s">
+      <c r="B65" s="33" t="s">
         <v>91</v>
       </c>
-      <c r="C65" s="49"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="49"/>
-      <c r="K65" s="49"/>
+      <c r="C65" s="34"/>
+      <c r="D65" s="34"/>
+      <c r="E65" s="34"/>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" s="34"/>
+      <c r="K65" s="34"/>
       <c r="L65" s="30"/>
-      <c r="M65" s="35" t="s">
+      <c r="M65" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="N65" s="36"/>
-      <c r="O65" s="35" t="s">
+      <c r="N65" s="47"/>
+      <c r="O65" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="P65" s="36"/>
-      <c r="Q65" s="35" t="s">
+      <c r="P65" s="47"/>
+      <c r="Q65" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="R65" s="36"/>
+      <c r="R65" s="47"/>
       <c r="S65" s="16" t="s">
         <v>44</v>
       </c>
@@ -4924,30 +4897,30 @@
     </row>
     <row r="66" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
-      <c r="B66" s="59" t="s">
+      <c r="B66" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="C66" s="44"/>
-      <c r="D66" s="38"/>
-      <c r="E66" s="63" t="s">
+      <c r="C66" s="50"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="48" t="s">
         <v>93</v>
       </c>
       <c r="F66" s="30"/>
-      <c r="G66" s="66" t="s">
+      <c r="G66" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="H66" s="44"/>
-      <c r="I66" s="44"/>
-      <c r="J66" s="44"/>
-      <c r="K66" s="44"/>
-      <c r="L66" s="38"/>
-      <c r="M66" s="40" t="s">
+      <c r="H66" s="50"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="50"/>
+      <c r="K66" s="50"/>
+      <c r="L66" s="51"/>
+      <c r="M66" s="39" t="s">
         <v>46</v>
       </c>
       <c r="N66" s="30"/>
-      <c r="O66" s="40"/>
+      <c r="O66" s="39"/>
       <c r="P66" s="30"/>
-      <c r="Q66" s="40"/>
+      <c r="Q66" s="39"/>
       <c r="R66" s="30"/>
       <c r="S66" s="17"/>
       <c r="T66" s="5"/>
@@ -4959,26 +4932,26 @@
     </row>
     <row r="67" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
-      <c r="B67" s="45"/>
-      <c r="C67" s="46"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="63" t="s">
+      <c r="B67" s="87"/>
+      <c r="C67" s="53"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="48" t="s">
         <v>95</v>
       </c>
       <c r="F67" s="30"/>
-      <c r="G67" s="94"/>
-      <c r="H67" s="46"/>
-      <c r="I67" s="46"/>
-      <c r="J67" s="46"/>
-      <c r="K67" s="46"/>
-      <c r="L67" s="47"/>
-      <c r="M67" s="40" t="s">
+      <c r="G67" s="52"/>
+      <c r="H67" s="53"/>
+      <c r="I67" s="53"/>
+      <c r="J67" s="53"/>
+      <c r="K67" s="53"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="39" t="s">
         <v>46</v>
       </c>
       <c r="N67" s="30"/>
-      <c r="O67" s="40"/>
+      <c r="O67" s="39"/>
       <c r="P67" s="30"/>
-      <c r="Q67" s="40"/>
+      <c r="Q67" s="39"/>
       <c r="R67" s="30"/>
       <c r="S67" s="17"/>
       <c r="T67" s="5"/>
@@ -4990,26 +4963,26 @@
     </row>
     <row r="68" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
-      <c r="B68" s="45"/>
-      <c r="C68" s="46"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="63" t="s">
+      <c r="B68" s="87"/>
+      <c r="C68" s="53"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="48" t="s">
         <v>96</v>
       </c>
       <c r="F68" s="30"/>
-      <c r="G68" s="94"/>
-      <c r="H68" s="46"/>
-      <c r="I68" s="46"/>
-      <c r="J68" s="46"/>
-      <c r="K68" s="46"/>
-      <c r="L68" s="47"/>
-      <c r="M68" s="40" t="s">
+      <c r="G68" s="52"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="53"/>
+      <c r="K68" s="53"/>
+      <c r="L68" s="54"/>
+      <c r="M68" s="39" t="s">
         <v>46</v>
       </c>
       <c r="N68" s="30"/>
-      <c r="O68" s="40"/>
+      <c r="O68" s="39"/>
       <c r="P68" s="30"/>
-      <c r="Q68" s="40"/>
+      <c r="Q68" s="39"/>
       <c r="R68" s="30"/>
       <c r="S68" s="17"/>
       <c r="T68" s="5"/>
@@ -5021,26 +4994,26 @@
     </row>
     <row r="69" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
-      <c r="B69" s="45"/>
-      <c r="C69" s="46"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="63" t="s">
+      <c r="B69" s="87"/>
+      <c r="C69" s="53"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="48" t="s">
         <v>97</v>
       </c>
       <c r="F69" s="30"/>
-      <c r="G69" s="94"/>
-      <c r="H69" s="46"/>
-      <c r="I69" s="46"/>
-      <c r="J69" s="46"/>
-      <c r="K69" s="46"/>
-      <c r="L69" s="47"/>
-      <c r="M69" s="40" t="s">
+      <c r="G69" s="52"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="53"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="54"/>
+      <c r="M69" s="39" t="s">
         <v>46</v>
       </c>
       <c r="N69" s="30"/>
-      <c r="O69" s="40"/>
+      <c r="O69" s="39"/>
       <c r="P69" s="30"/>
-      <c r="Q69" s="40"/>
+      <c r="Q69" s="39"/>
       <c r="R69" s="30"/>
       <c r="S69" s="17"/>
       <c r="T69" s="5"/>
@@ -5052,26 +5025,26 @@
     </row>
     <row r="70" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
-      <c r="B70" s="45"/>
-      <c r="C70" s="46"/>
-      <c r="D70" s="47"/>
-      <c r="E70" s="66" t="s">
+      <c r="B70" s="87"/>
+      <c r="C70" s="53"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="F70" s="38"/>
-      <c r="G70" s="94"/>
-      <c r="H70" s="46"/>
-      <c r="I70" s="46"/>
-      <c r="J70" s="46"/>
-      <c r="K70" s="46"/>
-      <c r="L70" s="47"/>
-      <c r="M70" s="40" t="s">
+      <c r="F70" s="51"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="53"/>
+      <c r="K70" s="53"/>
+      <c r="L70" s="54"/>
+      <c r="M70" s="39" t="s">
         <v>46</v>
       </c>
       <c r="N70" s="30"/>
-      <c r="O70" s="40"/>
+      <c r="O70" s="39"/>
       <c r="P70" s="30"/>
-      <c r="Q70" s="40"/>
+      <c r="Q70" s="39"/>
       <c r="R70" s="30"/>
       <c r="S70" s="17"/>
       <c r="T70" s="5"/>
@@ -5083,31 +5056,31 @@
     </row>
     <row r="71" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
-      <c r="B71" s="53" t="s">
+      <c r="B71" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="C71" s="49"/>
-      <c r="D71" s="49"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="49"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="49"/>
-      <c r="K71" s="49"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="34"/>
       <c r="L71" s="30"/>
-      <c r="M71" s="35" t="s">
+      <c r="M71" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="N71" s="36"/>
-      <c r="O71" s="35" t="s">
+      <c r="N71" s="47"/>
+      <c r="O71" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="P71" s="36"/>
-      <c r="Q71" s="35" t="s">
+      <c r="P71" s="47"/>
+      <c r="Q71" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="R71" s="36"/>
+      <c r="R71" s="47"/>
       <c r="S71" s="16" t="s">
         <v>44</v>
       </c>
@@ -5120,20 +5093,20 @@
     </row>
     <row r="72" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
-      <c r="B72" s="59" t="s">
+      <c r="B72" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="C72" s="44"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="63" t="s">
+      <c r="C72" s="50"/>
+      <c r="D72" s="51"/>
+      <c r="E72" s="48" t="s">
         <v>93</v>
       </c>
       <c r="F72" s="30"/>
       <c r="G72" s="29"/>
-      <c r="H72" s="49"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="49"/>
-      <c r="K72" s="49"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
       <c r="L72" s="18" t="s">
         <v>101</v>
       </c>
@@ -5155,18 +5128,18 @@
     </row>
     <row r="73" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
-      <c r="B73" s="45"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="63" t="s">
+      <c r="B73" s="87"/>
+      <c r="C73" s="53"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="48" t="s">
         <v>95</v>
       </c>
       <c r="F73" s="30"/>
       <c r="G73" s="29"/>
-      <c r="H73" s="49"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="49"/>
-      <c r="K73" s="49"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="34"/>
       <c r="L73" s="18" t="s">
         <v>101</v>
       </c>
@@ -5188,18 +5161,18 @@
     </row>
     <row r="74" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
-      <c r="B74" s="45"/>
-      <c r="C74" s="46"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="63" t="s">
+      <c r="B74" s="87"/>
+      <c r="C74" s="53"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="48" t="s">
         <v>96</v>
       </c>
       <c r="F74" s="30"/>
       <c r="G74" s="29"/>
-      <c r="H74" s="49"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="49"/>
-      <c r="K74" s="49"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="34"/>
       <c r="L74" s="18" t="s">
         <v>101</v>
       </c>
@@ -5221,18 +5194,18 @@
     </row>
     <row r="75" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
-      <c r="B75" s="48"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="36"/>
-      <c r="E75" s="63" t="s">
+      <c r="B75" s="91"/>
+      <c r="C75" s="92"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="48" t="s">
         <v>97</v>
       </c>
       <c r="F75" s="30"/>
       <c r="G75" s="29"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="49"/>
-      <c r="K75" s="49"/>
+      <c r="H75" s="34"/>
+      <c r="I75" s="34"/>
+      <c r="J75" s="34"/>
+      <c r="K75" s="34"/>
       <c r="L75" s="18" t="s">
         <v>101</v>
       </c>
@@ -5254,32 +5227,32 @@
     </row>
     <row r="76" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
-      <c r="B76" s="59" t="s">
+      <c r="B76" s="60" t="s">
         <v>102</v>
       </c>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="38"/>
-      <c r="G76" s="41" t="s">
+      <c r="C76" s="50"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="50"/>
+      <c r="F76" s="51"/>
+      <c r="G76" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="H76" s="42"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="41" t="s">
+      <c r="H76" s="92"/>
+      <c r="I76" s="47"/>
+      <c r="J76" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="K76" s="42"/>
-      <c r="L76" s="36"/>
-      <c r="M76" s="40" t="s">
+      <c r="K76" s="92"/>
+      <c r="L76" s="47"/>
+      <c r="M76" s="39" t="s">
         <v>41</v>
       </c>
       <c r="N76" s="30"/>
-      <c r="O76" s="40" t="s">
+      <c r="O76" s="39" t="s">
         <v>42</v>
       </c>
       <c r="P76" s="30"/>
-      <c r="Q76" s="40" t="s">
+      <c r="Q76" s="39" t="s">
         <v>43</v>
       </c>
       <c r="R76" s="30"/>
@@ -5295,11 +5268,11 @@
     </row>
     <row r="77" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
-      <c r="B77" s="45"/>
-      <c r="C77" s="46"/>
-      <c r="D77" s="46"/>
-      <c r="E77" s="46"/>
-      <c r="F77" s="47"/>
+      <c r="B77" s="87"/>
+      <c r="C77" s="53"/>
+      <c r="D77" s="53"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="54"/>
       <c r="G77" s="20" t="s">
         <v>105</v>
       </c>
@@ -5332,11 +5305,11 @@
     </row>
     <row r="78" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
-      <c r="B78" s="45"/>
-      <c r="C78" s="46"/>
-      <c r="D78" s="46"/>
-      <c r="E78" s="46"/>
-      <c r="F78" s="47"/>
+      <c r="B78" s="87"/>
+      <c r="C78" s="53"/>
+      <c r="D78" s="53"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="54"/>
       <c r="G78" s="20" t="s">
         <v>106</v>
       </c>
@@ -5363,11 +5336,11 @@
     </row>
     <row r="79" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
-      <c r="B79" s="45"/>
-      <c r="C79" s="46"/>
-      <c r="D79" s="46"/>
-      <c r="E79" s="46"/>
-      <c r="F79" s="47"/>
+      <c r="B79" s="87"/>
+      <c r="C79" s="53"/>
+      <c r="D79" s="53"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="54"/>
       <c r="G79" s="20" t="s">
         <v>107</v>
       </c>
@@ -5394,17 +5367,17 @@
     </row>
     <row r="80" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
-      <c r="B80" s="45"/>
-      <c r="C80" s="46"/>
-      <c r="D80" s="46"/>
-      <c r="E80" s="46"/>
-      <c r="F80" s="47"/>
+      <c r="B80" s="87"/>
+      <c r="C80" s="53"/>
+      <c r="D80" s="53"/>
+      <c r="E80" s="53"/>
+      <c r="F80" s="54"/>
       <c r="G80" s="20" t="s">
         <v>108</v>
       </c>
       <c r="H80" s="29"/>
       <c r="I80" s="30"/>
-      <c r="J80" s="57" t="s">
+      <c r="J80" s="79" t="s">
         <v>108</v>
       </c>
       <c r="K80" s="30"/>
@@ -5425,17 +5398,17 @@
     </row>
     <row r="81" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
-      <c r="B81" s="45"/>
-      <c r="C81" s="46"/>
-      <c r="D81" s="46"/>
-      <c r="E81" s="46"/>
-      <c r="F81" s="47"/>
+      <c r="B81" s="87"/>
+      <c r="C81" s="53"/>
+      <c r="D81" s="53"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="54"/>
       <c r="G81" s="20" t="s">
         <v>109</v>
       </c>
       <c r="H81" s="29"/>
       <c r="I81" s="30"/>
-      <c r="J81" s="57" t="s">
+      <c r="J81" s="79" t="s">
         <v>109</v>
       </c>
       <c r="K81" s="30"/>
@@ -5456,23 +5429,23 @@
     </row>
     <row r="82" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
-      <c r="B82" s="60"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="61"/>
-      <c r="F82" s="62"/>
+      <c r="B82" s="89"/>
+      <c r="C82" s="70"/>
+      <c r="D82" s="70"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="85"/>
       <c r="G82" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="H82" s="33"/>
-      <c r="I82" s="34"/>
-      <c r="J82" s="58" t="s">
+      <c r="H82" s="31"/>
+      <c r="I82" s="32"/>
+      <c r="J82" s="88" t="s">
         <v>110</v>
       </c>
-      <c r="K82" s="34"/>
+      <c r="K82" s="32"/>
       <c r="L82" s="22"/>
-      <c r="M82" s="33"/>
-      <c r="N82" s="34"/>
+      <c r="M82" s="31"/>
+      <c r="N82" s="32"/>
       <c r="O82" s="14"/>
       <c r="P82" s="22"/>
       <c r="Q82" s="14"/>
@@ -5487,31 +5460,31 @@
     </row>
     <row r="83" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
-      <c r="B83" s="51" t="s">
+      <c r="B83" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="C83" s="52"/>
-      <c r="D83" s="52"/>
-      <c r="E83" s="52"/>
-      <c r="F83" s="52"/>
-      <c r="G83" s="52"/>
-      <c r="H83" s="52"/>
-      <c r="I83" s="52"/>
-      <c r="J83" s="52"/>
-      <c r="K83" s="52"/>
-      <c r="L83" s="32"/>
-      <c r="M83" s="31" t="s">
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="41"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="41"/>
+      <c r="J83" s="41"/>
+      <c r="K83" s="41"/>
+      <c r="L83" s="38"/>
+      <c r="M83" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="N83" s="32"/>
-      <c r="O83" s="31" t="s">
+      <c r="N83" s="38"/>
+      <c r="O83" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="P83" s="32"/>
-      <c r="Q83" s="31" t="s">
+      <c r="P83" s="38"/>
+      <c r="Q83" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="R83" s="32"/>
+      <c r="R83" s="38"/>
       <c r="S83" s="11" t="s">
         <v>44</v>
       </c>
@@ -5524,18 +5497,18 @@
     </row>
     <row r="84" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
-      <c r="B84" s="53" t="s">
+      <c r="B84" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="C84" s="49"/>
-      <c r="D84" s="49"/>
-      <c r="E84" s="49"/>
-      <c r="F84" s="49"/>
-      <c r="G84" s="49"/>
-      <c r="H84" s="49"/>
-      <c r="I84" s="49"/>
-      <c r="J84" s="49"/>
-      <c r="K84" s="49"/>
+      <c r="C84" s="34"/>
+      <c r="D84" s="34"/>
+      <c r="E84" s="34"/>
+      <c r="F84" s="34"/>
+      <c r="G84" s="34"/>
+      <c r="H84" s="34"/>
+      <c r="I84" s="34"/>
+      <c r="J84" s="34"/>
+      <c r="K84" s="34"/>
       <c r="L84" s="30"/>
       <c r="M84" s="29" t="s">
         <v>46</v>
@@ -5555,35 +5528,35 @@
     </row>
     <row r="85" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
-      <c r="B85" s="53" t="s">
+      <c r="B85" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="C85" s="49"/>
-      <c r="D85" s="49"/>
-      <c r="E85" s="49"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
       <c r="F85" s="30"/>
-      <c r="G85" s="50" t="s">
+      <c r="G85" s="94" t="s">
         <v>114</v>
       </c>
-      <c r="H85" s="44"/>
-      <c r="I85" s="38"/>
-      <c r="J85" s="50" t="s">
+      <c r="H85" s="50"/>
+      <c r="I85" s="51"/>
+      <c r="J85" s="94" t="s">
         <v>115</v>
       </c>
-      <c r="K85" s="44"/>
-      <c r="L85" s="38"/>
-      <c r="M85" s="35" t="s">
+      <c r="K85" s="50"/>
+      <c r="L85" s="51"/>
+      <c r="M85" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="N85" s="36"/>
-      <c r="O85" s="35" t="s">
+      <c r="N85" s="47"/>
+      <c r="O85" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="P85" s="36"/>
-      <c r="Q85" s="35" t="s">
+      <c r="P85" s="47"/>
+      <c r="Q85" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="R85" s="36"/>
+      <c r="R85" s="47"/>
       <c r="S85" s="16" t="s">
         <v>44</v>
       </c>
@@ -5596,11 +5569,11 @@
     </row>
     <row r="86" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
-      <c r="B86" s="43" t="s">
+      <c r="B86" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="C86" s="44"/>
-      <c r="D86" s="38"/>
+      <c r="C86" s="50"/>
+      <c r="D86" s="51"/>
       <c r="E86" s="29" t="s">
         <v>117</v>
       </c>
@@ -5608,12 +5581,12 @@
       <c r="G86" s="29">
         <v>250</v>
       </c>
-      <c r="H86" s="49"/>
+      <c r="H86" s="34"/>
       <c r="I86" s="18" t="s">
         <v>118</v>
       </c>
       <c r="J86" s="29"/>
-      <c r="K86" s="49"/>
+      <c r="K86" s="34"/>
       <c r="L86" s="18" t="s">
         <v>101</v>
       </c>
@@ -5635,9 +5608,9 @@
     </row>
     <row r="87" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
-      <c r="B87" s="45"/>
-      <c r="C87" s="46"/>
-      <c r="D87" s="47"/>
+      <c r="B87" s="87"/>
+      <c r="C87" s="53"/>
+      <c r="D87" s="54"/>
       <c r="E87" s="29" t="s">
         <v>119</v>
       </c>
@@ -5645,12 +5618,12 @@
       <c r="G87" s="29">
         <v>500</v>
       </c>
-      <c r="H87" s="49"/>
+      <c r="H87" s="34"/>
       <c r="I87" s="18" t="s">
         <v>118</v>
       </c>
       <c r="J87" s="29"/>
-      <c r="K87" s="49"/>
+      <c r="K87" s="34"/>
       <c r="L87" s="18" t="s">
         <v>101</v>
       </c>
@@ -5672,22 +5645,22 @@
     </row>
     <row r="88" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
-      <c r="B88" s="48"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="36"/>
+      <c r="B88" s="91"/>
+      <c r="C88" s="92"/>
+      <c r="D88" s="47"/>
       <c r="E88" s="29" t="s">
         <v>120</v>
       </c>
       <c r="F88" s="30"/>
-      <c r="G88" s="54">
+      <c r="G88" s="59">
         <v>1000</v>
       </c>
-      <c r="H88" s="49"/>
+      <c r="H88" s="34"/>
       <c r="I88" s="18" t="s">
         <v>118</v>
       </c>
       <c r="J88" s="29"/>
-      <c r="K88" s="49"/>
+      <c r="K88" s="34"/>
       <c r="L88" s="18" t="s">
         <v>101</v>
       </c>
@@ -5709,11 +5682,11 @@
     </row>
     <row r="89" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
-      <c r="B89" s="43" t="s">
+      <c r="B89" s="90" t="s">
         <v>121</v>
       </c>
-      <c r="C89" s="44"/>
-      <c r="D89" s="38"/>
+      <c r="C89" s="50"/>
+      <c r="D89" s="51"/>
       <c r="E89" s="29" t="s">
         <v>117</v>
       </c>
@@ -5721,12 +5694,12 @@
       <c r="G89" s="29">
         <v>250</v>
       </c>
-      <c r="H89" s="49"/>
+      <c r="H89" s="34"/>
       <c r="I89" s="18" t="s">
         <v>118</v>
       </c>
       <c r="J89" s="29"/>
-      <c r="K89" s="49"/>
+      <c r="K89" s="34"/>
       <c r="L89" s="18" t="s">
         <v>101</v>
       </c>
@@ -5748,9 +5721,9 @@
     </row>
     <row r="90" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
-      <c r="B90" s="45"/>
-      <c r="C90" s="46"/>
-      <c r="D90" s="47"/>
+      <c r="B90" s="87"/>
+      <c r="C90" s="53"/>
+      <c r="D90" s="54"/>
       <c r="E90" s="29" t="s">
         <v>119</v>
       </c>
@@ -5758,12 +5731,12 @@
       <c r="G90" s="29">
         <v>500</v>
       </c>
-      <c r="H90" s="49"/>
+      <c r="H90" s="34"/>
       <c r="I90" s="18" t="s">
         <v>118</v>
       </c>
       <c r="J90" s="29"/>
-      <c r="K90" s="49"/>
+      <c r="K90" s="34"/>
       <c r="L90" s="18" t="s">
         <v>101</v>
       </c>
@@ -5785,22 +5758,22 @@
     </row>
     <row r="91" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
-      <c r="B91" s="48"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="36"/>
+      <c r="B91" s="91"/>
+      <c r="C91" s="92"/>
+      <c r="D91" s="47"/>
       <c r="E91" s="29" t="s">
         <v>120</v>
       </c>
       <c r="F91" s="30"/>
-      <c r="G91" s="54">
+      <c r="G91" s="59">
         <v>1000</v>
       </c>
-      <c r="H91" s="49"/>
+      <c r="H91" s="34"/>
       <c r="I91" s="18" t="s">
         <v>118</v>
       </c>
       <c r="J91" s="29"/>
-      <c r="K91" s="49"/>
+      <c r="K91" s="34"/>
       <c r="L91" s="18" t="s">
         <v>101</v>
       </c>
@@ -5822,18 +5795,18 @@
     </row>
     <row r="92" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
-      <c r="B92" s="53" t="s">
+      <c r="B92" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="C92" s="49"/>
-      <c r="D92" s="49"/>
-      <c r="E92" s="49"/>
-      <c r="F92" s="49"/>
-      <c r="G92" s="49"/>
-      <c r="H92" s="49"/>
-      <c r="I92" s="49"/>
-      <c r="J92" s="49"/>
-      <c r="K92" s="49"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
+      <c r="I92" s="34"/>
+      <c r="J92" s="34"/>
+      <c r="K92" s="34"/>
       <c r="L92" s="30"/>
       <c r="M92" s="29" t="s">
         <v>46</v>
@@ -5853,18 +5826,18 @@
     </row>
     <row r="93" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
-      <c r="B93" s="53" t="s">
+      <c r="B93" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="C93" s="49"/>
-      <c r="D93" s="49"/>
-      <c r="E93" s="49"/>
-      <c r="F93" s="49"/>
-      <c r="G93" s="49"/>
-      <c r="H93" s="49"/>
-      <c r="I93" s="49"/>
-      <c r="J93" s="49"/>
-      <c r="K93" s="49"/>
+      <c r="C93" s="34"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="34"/>
+      <c r="G93" s="34"/>
+      <c r="H93" s="34"/>
+      <c r="I93" s="34"/>
+      <c r="J93" s="34"/>
+      <c r="K93" s="34"/>
       <c r="L93" s="30"/>
       <c r="M93" s="29" t="s">
         <v>46</v>
@@ -5884,32 +5857,32 @@
     </row>
     <row r="94" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
-      <c r="B94" s="53" t="s">
+      <c r="B94" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="C94" s="49"/>
-      <c r="D94" s="49"/>
-      <c r="E94" s="49"/>
-      <c r="F94" s="49"/>
-      <c r="G94" s="49"/>
-      <c r="H94" s="49"/>
-      <c r="I94" s="49"/>
-      <c r="J94" s="49"/>
-      <c r="K94" s="49"/>
+      <c r="C94" s="34"/>
+      <c r="D94" s="34"/>
+      <c r="E94" s="34"/>
+      <c r="F94" s="34"/>
+      <c r="G94" s="34"/>
+      <c r="H94" s="34"/>
+      <c r="I94" s="34"/>
+      <c r="J94" s="34"/>
+      <c r="K94" s="34"/>
       <c r="L94" s="30"/>
-      <c r="M94" s="37" t="s">
+      <c r="M94" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="N94" s="38"/>
-      <c r="O94" s="37" t="s">
+      <c r="N94" s="51"/>
+      <c r="O94" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="P94" s="38"/>
-      <c r="Q94" s="37" t="s">
+      <c r="P94" s="51"/>
+      <c r="Q94" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="R94" s="38"/>
-      <c r="S94" s="92" t="s">
+      <c r="R94" s="51"/>
+      <c r="S94" s="57" t="s">
         <v>44</v>
       </c>
       <c r="T94" s="5"/>
@@ -5950,13 +5923,13 @@
       <c r="L95" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="M95" s="39"/>
-      <c r="N95" s="36"/>
-      <c r="O95" s="39"/>
-      <c r="P95" s="36"/>
-      <c r="Q95" s="39"/>
-      <c r="R95" s="36"/>
-      <c r="S95" s="93"/>
+      <c r="M95" s="56"/>
+      <c r="N95" s="47"/>
+      <c r="O95" s="56"/>
+      <c r="P95" s="47"/>
+      <c r="Q95" s="56"/>
+      <c r="R95" s="47"/>
+      <c r="S95" s="58"/>
       <c r="T95" s="5"/>
       <c r="U95" s="5"/>
       <c r="V95" s="5"/>
@@ -6139,25 +6112,25 @@
     </row>
     <row r="101" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
-      <c r="B101" s="55" t="s">
+      <c r="B101" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="C101" s="56"/>
-      <c r="D101" s="56"/>
-      <c r="E101" s="56"/>
-      <c r="F101" s="56"/>
-      <c r="G101" s="56"/>
-      <c r="H101" s="56"/>
-      <c r="I101" s="56"/>
-      <c r="J101" s="56"/>
-      <c r="K101" s="56"/>
-      <c r="L101" s="34"/>
-      <c r="M101" s="33"/>
-      <c r="N101" s="34"/>
-      <c r="O101" s="33"/>
-      <c r="P101" s="34"/>
-      <c r="Q101" s="33"/>
-      <c r="R101" s="34"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="36"/>
+      <c r="L101" s="32"/>
+      <c r="M101" s="31"/>
+      <c r="N101" s="32"/>
+      <c r="O101" s="31"/>
+      <c r="P101" s="32"/>
+      <c r="Q101" s="31"/>
+      <c r="R101" s="32"/>
       <c r="S101" s="15"/>
       <c r="T101" s="5"/>
       <c r="U101" s="5"/>
@@ -6168,26 +6141,26 @@
     </row>
     <row r="102" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
-      <c r="B102" s="88" t="s">
+      <c r="B102" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="C102" s="89"/>
-      <c r="D102" s="89"/>
-      <c r="E102" s="89"/>
-      <c r="F102" s="89"/>
-      <c r="G102" s="89"/>
-      <c r="H102" s="89"/>
-      <c r="I102" s="89"/>
-      <c r="J102" s="89"/>
-      <c r="K102" s="89"/>
-      <c r="L102" s="89"/>
-      <c r="M102" s="89"/>
-      <c r="N102" s="89"/>
-      <c r="O102" s="89"/>
-      <c r="P102" s="89"/>
-      <c r="Q102" s="89"/>
-      <c r="R102" s="89"/>
-      <c r="S102" s="91"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="44"/>
+      <c r="E102" s="44"/>
+      <c r="F102" s="44"/>
+      <c r="G102" s="44"/>
+      <c r="H102" s="44"/>
+      <c r="I102" s="44"/>
+      <c r="J102" s="44"/>
+      <c r="K102" s="44"/>
+      <c r="L102" s="44"/>
+      <c r="M102" s="44"/>
+      <c r="N102" s="44"/>
+      <c r="O102" s="44"/>
+      <c r="P102" s="44"/>
+      <c r="Q102" s="44"/>
+      <c r="R102" s="44"/>
+      <c r="S102" s="45"/>
       <c r="T102" s="5"/>
       <c r="U102" s="5"/>
       <c r="V102" s="5"/>
@@ -6197,31 +6170,31 @@
     </row>
     <row r="103" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
-      <c r="B103" s="51" t="s">
+      <c r="B103" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="C103" s="52"/>
-      <c r="D103" s="52"/>
-      <c r="E103" s="52"/>
-      <c r="F103" s="52"/>
-      <c r="G103" s="52"/>
-      <c r="H103" s="52"/>
-      <c r="I103" s="52"/>
-      <c r="J103" s="52"/>
-      <c r="K103" s="52"/>
-      <c r="L103" s="32"/>
-      <c r="M103" s="31" t="s">
+      <c r="C103" s="41"/>
+      <c r="D103" s="41"/>
+      <c r="E103" s="41"/>
+      <c r="F103" s="41"/>
+      <c r="G103" s="41"/>
+      <c r="H103" s="41"/>
+      <c r="I103" s="41"/>
+      <c r="J103" s="41"/>
+      <c r="K103" s="41"/>
+      <c r="L103" s="38"/>
+      <c r="M103" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="N103" s="32"/>
-      <c r="O103" s="31" t="s">
+      <c r="N103" s="38"/>
+      <c r="O103" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="P103" s="32"/>
-      <c r="Q103" s="31" t="s">
+      <c r="P103" s="38"/>
+      <c r="Q103" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="R103" s="32"/>
+      <c r="R103" s="38"/>
       <c r="S103" s="11" t="s">
         <v>44</v>
       </c>
@@ -6255,7 +6228,7 @@
       <c r="H104" s="29" t="s">
         <v>131</v>
       </c>
-      <c r="I104" s="49"/>
+      <c r="I104" s="34"/>
       <c r="J104" s="30"/>
       <c r="K104" s="29" t="s">
         <v>132</v>
@@ -6288,7 +6261,7 @@
       </c>
       <c r="G105" s="20"/>
       <c r="H105" s="29"/>
-      <c r="I105" s="49"/>
+      <c r="I105" s="34"/>
       <c r="J105" s="30"/>
       <c r="K105" s="29"/>
       <c r="L105" s="30"/>
@@ -6319,7 +6292,7 @@
       </c>
       <c r="G106" s="20"/>
       <c r="H106" s="29"/>
-      <c r="I106" s="49"/>
+      <c r="I106" s="34"/>
       <c r="J106" s="30"/>
       <c r="K106" s="29"/>
       <c r="L106" s="30"/>
@@ -6350,7 +6323,7 @@
       </c>
       <c r="G107" s="20"/>
       <c r="H107" s="29"/>
-      <c r="I107" s="49"/>
+      <c r="I107" s="34"/>
       <c r="J107" s="30"/>
       <c r="K107" s="29"/>
       <c r="L107" s="30"/>
@@ -6381,7 +6354,7 @@
       </c>
       <c r="G108" s="20"/>
       <c r="H108" s="29"/>
-      <c r="I108" s="49"/>
+      <c r="I108" s="34"/>
       <c r="J108" s="30"/>
       <c r="K108" s="29"/>
       <c r="L108" s="30"/>
@@ -6412,7 +6385,7 @@
       </c>
       <c r="G109" s="20"/>
       <c r="H109" s="29"/>
-      <c r="I109" s="49"/>
+      <c r="I109" s="34"/>
       <c r="J109" s="30"/>
       <c r="K109" s="29"/>
       <c r="L109" s="30"/>
@@ -6432,18 +6405,18 @@
     </row>
     <row r="110" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
-      <c r="B110" s="53" t="s">
+      <c r="B110" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="C110" s="49"/>
-      <c r="D110" s="49"/>
-      <c r="E110" s="49"/>
-      <c r="F110" s="49"/>
-      <c r="G110" s="49"/>
-      <c r="H110" s="49"/>
-      <c r="I110" s="49"/>
-      <c r="J110" s="49"/>
-      <c r="K110" s="49"/>
+      <c r="C110" s="34"/>
+      <c r="D110" s="34"/>
+      <c r="E110" s="34"/>
+      <c r="F110" s="34"/>
+      <c r="G110" s="34"/>
+      <c r="H110" s="34"/>
+      <c r="I110" s="34"/>
+      <c r="J110" s="34"/>
+      <c r="K110" s="34"/>
       <c r="L110" s="30"/>
       <c r="M110" s="12"/>
       <c r="N110" s="18"/>
@@ -6461,18 +6434,18 @@
     </row>
     <row r="111" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
-      <c r="B111" s="53" t="s">
+      <c r="B111" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="C111" s="49"/>
-      <c r="D111" s="49"/>
-      <c r="E111" s="49"/>
-      <c r="F111" s="49"/>
-      <c r="G111" s="49"/>
-      <c r="H111" s="49"/>
-      <c r="I111" s="49"/>
-      <c r="J111" s="49"/>
-      <c r="K111" s="49"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="34"/>
+      <c r="E111" s="34"/>
+      <c r="F111" s="34"/>
+      <c r="G111" s="34"/>
+      <c r="H111" s="34"/>
+      <c r="I111" s="34"/>
+      <c r="J111" s="34"/>
+      <c r="K111" s="34"/>
       <c r="L111" s="30"/>
       <c r="M111" s="12"/>
       <c r="N111" s="18"/>
@@ -6490,18 +6463,18 @@
     </row>
     <row r="112" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
-      <c r="B112" s="53" t="s">
+      <c r="B112" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="C112" s="49"/>
-      <c r="D112" s="49"/>
-      <c r="E112" s="49"/>
-      <c r="F112" s="49"/>
-      <c r="G112" s="49"/>
-      <c r="H112" s="49"/>
-      <c r="I112" s="49"/>
-      <c r="J112" s="49"/>
-      <c r="K112" s="49"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="34"/>
+      <c r="E112" s="34"/>
+      <c r="F112" s="34"/>
+      <c r="G112" s="34"/>
+      <c r="H112" s="34"/>
+      <c r="I112" s="34"/>
+      <c r="J112" s="34"/>
+      <c r="K112" s="34"/>
       <c r="L112" s="30"/>
       <c r="M112" s="12"/>
       <c r="N112" s="18"/>
@@ -6519,18 +6492,18 @@
     </row>
     <row r="113" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
-      <c r="B113" s="53" t="s">
+      <c r="B113" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="C113" s="49"/>
-      <c r="D113" s="49"/>
-      <c r="E113" s="49"/>
-      <c r="F113" s="49"/>
-      <c r="G113" s="49"/>
-      <c r="H113" s="49"/>
-      <c r="I113" s="49"/>
-      <c r="J113" s="49"/>
-      <c r="K113" s="49"/>
+      <c r="C113" s="34"/>
+      <c r="D113" s="34"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="34"/>
+      <c r="H113" s="34"/>
+      <c r="I113" s="34"/>
+      <c r="J113" s="34"/>
+      <c r="K113" s="34"/>
       <c r="L113" s="30"/>
       <c r="M113" s="12"/>
       <c r="N113" s="18"/>
@@ -6548,18 +6521,18 @@
     </row>
     <row r="114" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
-      <c r="B114" s="53" t="s">
+      <c r="B114" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="C114" s="49"/>
-      <c r="D114" s="49"/>
-      <c r="E114" s="49"/>
-      <c r="F114" s="49"/>
-      <c r="G114" s="49"/>
-      <c r="H114" s="49"/>
-      <c r="I114" s="49"/>
-      <c r="J114" s="49"/>
-      <c r="K114" s="49"/>
+      <c r="C114" s="34"/>
+      <c r="D114" s="34"/>
+      <c r="E114" s="34"/>
+      <c r="F114" s="34"/>
+      <c r="G114" s="34"/>
+      <c r="H114" s="34"/>
+      <c r="I114" s="34"/>
+      <c r="J114" s="34"/>
+      <c r="K114" s="34"/>
       <c r="L114" s="30"/>
       <c r="M114" s="12"/>
       <c r="N114" s="18"/>
@@ -6577,19 +6550,19 @@
     </row>
     <row r="115" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
-      <c r="B115" s="59" t="s">
+      <c r="B115" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="C115" s="44"/>
-      <c r="D115" s="44"/>
-      <c r="E115" s="44"/>
-      <c r="F115" s="44"/>
-      <c r="G115" s="44"/>
-      <c r="H115" s="44"/>
-      <c r="I115" s="44"/>
-      <c r="J115" s="44"/>
-      <c r="K115" s="44"/>
-      <c r="L115" s="38"/>
+      <c r="C115" s="50"/>
+      <c r="D115" s="50"/>
+      <c r="E115" s="50"/>
+      <c r="F115" s="50"/>
+      <c r="G115" s="50"/>
+      <c r="H115" s="50"/>
+      <c r="I115" s="50"/>
+      <c r="J115" s="50"/>
+      <c r="K115" s="50"/>
+      <c r="L115" s="51"/>
       <c r="M115" s="23"/>
       <c r="N115" s="25"/>
       <c r="O115" s="23"/>
@@ -6606,28 +6579,28 @@
     </row>
     <row r="116" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
-      <c r="B116" s="53" t="s">
+      <c r="B116" s="33" t="s">
         <v>139</v>
       </c>
-      <c r="C116" s="49"/>
-      <c r="D116" s="49"/>
-      <c r="E116" s="49"/>
-      <c r="F116" s="49"/>
-      <c r="G116" s="49"/>
-      <c r="H116" s="49"/>
-      <c r="I116" s="49"/>
-      <c r="J116" s="49"/>
-      <c r="K116" s="49"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="34"/>
+      <c r="E116" s="34"/>
+      <c r="F116" s="34"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="34"/>
+      <c r="I116" s="34"/>
+      <c r="J116" s="34"/>
+      <c r="K116" s="34"/>
       <c r="L116" s="30"/>
-      <c r="M116" s="40" t="s">
+      <c r="M116" s="39" t="s">
         <v>41</v>
       </c>
       <c r="N116" s="30"/>
-      <c r="O116" s="40" t="s">
+      <c r="O116" s="39" t="s">
         <v>42</v>
       </c>
       <c r="P116" s="30"/>
-      <c r="Q116" s="40" t="s">
+      <c r="Q116" s="39" t="s">
         <v>43</v>
       </c>
       <c r="R116" s="30"/>
@@ -6643,18 +6616,18 @@
     </row>
     <row r="117" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
-      <c r="B117" s="53" t="s">
+      <c r="B117" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="C117" s="49"/>
-      <c r="D117" s="49"/>
-      <c r="E117" s="49"/>
-      <c r="F117" s="49"/>
-      <c r="G117" s="49"/>
-      <c r="H117" s="49"/>
-      <c r="I117" s="49"/>
-      <c r="J117" s="49"/>
-      <c r="K117" s="49"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="34"/>
+      <c r="E117" s="34"/>
+      <c r="F117" s="34"/>
+      <c r="G117" s="34"/>
+      <c r="H117" s="34"/>
+      <c r="I117" s="34"/>
+      <c r="J117" s="34"/>
+      <c r="K117" s="34"/>
       <c r="L117" s="30"/>
       <c r="M117" s="29"/>
       <c r="N117" s="30"/>
@@ -6672,18 +6645,18 @@
     </row>
     <row r="118" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
-      <c r="B118" s="53" t="s">
+      <c r="B118" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="C118" s="49"/>
-      <c r="D118" s="49"/>
-      <c r="E118" s="49"/>
-      <c r="F118" s="49"/>
-      <c r="G118" s="49"/>
-      <c r="H118" s="49"/>
-      <c r="I118" s="49"/>
-      <c r="J118" s="49"/>
-      <c r="K118" s="49"/>
+      <c r="C118" s="34"/>
+      <c r="D118" s="34"/>
+      <c r="E118" s="34"/>
+      <c r="F118" s="34"/>
+      <c r="G118" s="34"/>
+      <c r="H118" s="34"/>
+      <c r="I118" s="34"/>
+      <c r="J118" s="34"/>
+      <c r="K118" s="34"/>
       <c r="L118" s="30"/>
       <c r="M118" s="29"/>
       <c r="N118" s="30"/>
@@ -6701,25 +6674,25 @@
     </row>
     <row r="119" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
-      <c r="B119" s="55" t="s">
+      <c r="B119" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="C119" s="56"/>
-      <c r="D119" s="56"/>
-      <c r="E119" s="56"/>
-      <c r="F119" s="56"/>
-      <c r="G119" s="56"/>
-      <c r="H119" s="56"/>
-      <c r="I119" s="56"/>
-      <c r="J119" s="56"/>
-      <c r="K119" s="56"/>
-      <c r="L119" s="34"/>
-      <c r="M119" s="33"/>
-      <c r="N119" s="34"/>
-      <c r="O119" s="33"/>
-      <c r="P119" s="34"/>
-      <c r="Q119" s="33"/>
-      <c r="R119" s="34"/>
+      <c r="C119" s="36"/>
+      <c r="D119" s="36"/>
+      <c r="E119" s="36"/>
+      <c r="F119" s="36"/>
+      <c r="G119" s="36"/>
+      <c r="H119" s="36"/>
+      <c r="I119" s="36"/>
+      <c r="J119" s="36"/>
+      <c r="K119" s="36"/>
+      <c r="L119" s="32"/>
+      <c r="M119" s="31"/>
+      <c r="N119" s="32"/>
+      <c r="O119" s="31"/>
+      <c r="P119" s="32"/>
+      <c r="Q119" s="31"/>
+      <c r="R119" s="32"/>
       <c r="S119" s="15"/>
       <c r="T119" s="5"/>
       <c r="U119" s="5"/>
@@ -6730,31 +6703,31 @@
     </row>
     <row r="120" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
-      <c r="B120" s="88" t="s">
+      <c r="B120" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="C120" s="89"/>
-      <c r="D120" s="89"/>
-      <c r="E120" s="89"/>
-      <c r="F120" s="89"/>
-      <c r="G120" s="89"/>
-      <c r="H120" s="89"/>
-      <c r="I120" s="89"/>
-      <c r="J120" s="89"/>
-      <c r="K120" s="89"/>
-      <c r="L120" s="90"/>
-      <c r="M120" s="31" t="s">
+      <c r="C120" s="44"/>
+      <c r="D120" s="44"/>
+      <c r="E120" s="44"/>
+      <c r="F120" s="44"/>
+      <c r="G120" s="44"/>
+      <c r="H120" s="44"/>
+      <c r="I120" s="44"/>
+      <c r="J120" s="44"/>
+      <c r="K120" s="44"/>
+      <c r="L120" s="66"/>
+      <c r="M120" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="N120" s="32"/>
-      <c r="O120" s="31" t="s">
+      <c r="N120" s="38"/>
+      <c r="O120" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="P120" s="32"/>
-      <c r="Q120" s="31" t="s">
+      <c r="P120" s="38"/>
+      <c r="Q120" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="R120" s="32"/>
+      <c r="R120" s="38"/>
       <c r="S120" s="11" t="s">
         <v>44</v>
       </c>
@@ -6767,25 +6740,25 @@
     </row>
     <row r="121" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
-      <c r="B121" s="85" t="s">
+      <c r="B121" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="C121" s="77"/>
-      <c r="D121" s="77"/>
-      <c r="E121" s="77"/>
-      <c r="F121" s="77"/>
-      <c r="G121" s="77"/>
-      <c r="H121" s="77"/>
-      <c r="I121" s="77"/>
-      <c r="J121" s="77"/>
-      <c r="K121" s="77"/>
-      <c r="L121" s="86"/>
-      <c r="M121" s="87"/>
-      <c r="N121" s="86"/>
-      <c r="O121" s="87"/>
-      <c r="P121" s="86"/>
-      <c r="Q121" s="87"/>
-      <c r="R121" s="86"/>
+      <c r="C121" s="63"/>
+      <c r="D121" s="63"/>
+      <c r="E121" s="63"/>
+      <c r="F121" s="63"/>
+      <c r="G121" s="63"/>
+      <c r="H121" s="63"/>
+      <c r="I121" s="63"/>
+      <c r="J121" s="63"/>
+      <c r="K121" s="63"/>
+      <c r="L121" s="64"/>
+      <c r="M121" s="65"/>
+      <c r="N121" s="64"/>
+      <c r="O121" s="65"/>
+      <c r="P121" s="64"/>
+      <c r="Q121" s="65"/>
+      <c r="R121" s="64"/>
       <c r="S121" s="27"/>
       <c r="T121" s="5"/>
       <c r="U121" s="5"/>
@@ -6796,24 +6769,24 @@
     </row>
     <row r="122" spans="1:25" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
-      <c r="B122" s="53" t="s">
+      <c r="B122" s="33" t="s">
         <v>145</v>
       </c>
-      <c r="C122" s="49"/>
-      <c r="D122" s="49"/>
-      <c r="E122" s="49"/>
-      <c r="F122" s="49"/>
-      <c r="G122" s="49"/>
-      <c r="H122" s="49"/>
-      <c r="I122" s="49"/>
-      <c r="J122" s="49"/>
-      <c r="K122" s="49"/>
+      <c r="C122" s="34"/>
+      <c r="D122" s="34"/>
+      <c r="E122" s="34"/>
+      <c r="F122" s="34"/>
+      <c r="G122" s="34"/>
+      <c r="H122" s="34"/>
+      <c r="I122" s="34"/>
+      <c r="J122" s="34"/>
+      <c r="K122" s="34"/>
       <c r="L122" s="30"/>
-      <c r="M122" s="40"/>
+      <c r="M122" s="39"/>
       <c r="N122" s="30"/>
-      <c r="O122" s="40"/>
+      <c r="O122" s="39"/>
       <c r="P122" s="30"/>
-      <c r="Q122" s="40"/>
+      <c r="Q122" s="39"/>
       <c r="R122" s="30"/>
       <c r="S122" s="17"/>
       <c r="T122" s="5"/>
@@ -6825,24 +6798,24 @@
     </row>
     <row r="123" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
-      <c r="B123" s="53" t="s">
+      <c r="B123" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="C123" s="49"/>
-      <c r="D123" s="49"/>
-      <c r="E123" s="49"/>
-      <c r="F123" s="49"/>
-      <c r="G123" s="49"/>
-      <c r="H123" s="49"/>
-      <c r="I123" s="49"/>
-      <c r="J123" s="49"/>
-      <c r="K123" s="49"/>
+      <c r="C123" s="34"/>
+      <c r="D123" s="34"/>
+      <c r="E123" s="34"/>
+      <c r="F123" s="34"/>
+      <c r="G123" s="34"/>
+      <c r="H123" s="34"/>
+      <c r="I123" s="34"/>
+      <c r="J123" s="34"/>
+      <c r="K123" s="34"/>
       <c r="L123" s="30"/>
-      <c r="M123" s="40"/>
+      <c r="M123" s="39"/>
       <c r="N123" s="30"/>
-      <c r="O123" s="40"/>
+      <c r="O123" s="39"/>
       <c r="P123" s="30"/>
-      <c r="Q123" s="40"/>
+      <c r="Q123" s="39"/>
       <c r="R123" s="30"/>
       <c r="S123" s="17"/>
       <c r="T123" s="5"/>
@@ -6854,27 +6827,27 @@
     </row>
     <row r="124" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
-      <c r="B124" s="55" t="s">
+      <c r="B124" s="35" t="s">
         <v>147</v>
       </c>
-      <c r="C124" s="56"/>
-      <c r="D124" s="56"/>
-      <c r="E124" s="56"/>
-      <c r="F124" s="56"/>
-      <c r="G124" s="56"/>
-      <c r="H124" s="56"/>
-      <c r="I124" s="56"/>
-      <c r="J124" s="56"/>
-      <c r="K124" s="56"/>
-      <c r="L124" s="34"/>
-      <c r="M124" s="84" t="s">
+      <c r="C124" s="36"/>
+      <c r="D124" s="36"/>
+      <c r="E124" s="36"/>
+      <c r="F124" s="36"/>
+      <c r="G124" s="36"/>
+      <c r="H124" s="36"/>
+      <c r="I124" s="36"/>
+      <c r="J124" s="36"/>
+      <c r="K124" s="36"/>
+      <c r="L124" s="32"/>
+      <c r="M124" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="N124" s="34"/>
-      <c r="O124" s="84"/>
-      <c r="P124" s="34"/>
-      <c r="Q124" s="84"/>
-      <c r="R124" s="34"/>
+      <c r="N124" s="32"/>
+      <c r="O124" s="61"/>
+      <c r="P124" s="32"/>
+      <c r="Q124" s="61"/>
+      <c r="R124" s="32"/>
       <c r="S124" s="28"/>
       <c r="T124" s="5"/>
       <c r="U124" s="5"/>
@@ -12285,19 +12258,419 @@
     </row>
   </sheetData>
   <mergeCells count="450">
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M54:N54"/>
-    <mergeCell ref="O53:P53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="O54:P54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="O51:P51"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="O49:P49"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="O50:P50"/>
-    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M103:N103"/>
+    <mergeCell ref="M101:N101"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="O83:P83"/>
+    <mergeCell ref="Q83:R83"/>
+    <mergeCell ref="M78:N78"/>
+    <mergeCell ref="M79:N79"/>
+    <mergeCell ref="M80:N80"/>
+    <mergeCell ref="M81:N81"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="O85:P85"/>
+    <mergeCell ref="Q85:R85"/>
+    <mergeCell ref="Q84:R84"/>
+    <mergeCell ref="Q96:R96"/>
+    <mergeCell ref="O97:P97"/>
+    <mergeCell ref="Q97:R97"/>
+    <mergeCell ref="O94:P95"/>
+    <mergeCell ref="Q94:R95"/>
+    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="O75:P75"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="O71:P71"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="O72:P72"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="O73:P73"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="O74:P74"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="Q76:R76"/>
+    <mergeCell ref="J76:L76"/>
+    <mergeCell ref="B89:D91"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="J85:L85"/>
+    <mergeCell ref="B83:L83"/>
+    <mergeCell ref="B84:L84"/>
+    <mergeCell ref="G85:I85"/>
+    <mergeCell ref="B85:F85"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="B54:L54"/>
+    <mergeCell ref="B51:L51"/>
+    <mergeCell ref="B52:L52"/>
+    <mergeCell ref="B49:L49"/>
+    <mergeCell ref="B50:L50"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="B76:F82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="B86:D88"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:K72"/>
+    <mergeCell ref="B72:D75"/>
+    <mergeCell ref="G73:K73"/>
+    <mergeCell ref="G74:K74"/>
+    <mergeCell ref="G75:K75"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="E73:F73"/>
+    <mergeCell ref="E74:F74"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="B55:L55"/>
+    <mergeCell ref="B56:L56"/>
+    <mergeCell ref="B30:L30"/>
+    <mergeCell ref="B31:L31"/>
+    <mergeCell ref="B32:L32"/>
+    <mergeCell ref="B39:L39"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="B33:L33"/>
+    <mergeCell ref="B38:L38"/>
+    <mergeCell ref="B34:L34"/>
+    <mergeCell ref="B36:L36"/>
+    <mergeCell ref="B35:L35"/>
+    <mergeCell ref="B37:L37"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="B92:L92"/>
+    <mergeCell ref="B94:L94"/>
+    <mergeCell ref="B93:L93"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="E66:F66"/>
+    <mergeCell ref="B66:D70"/>
+    <mergeCell ref="E68:F68"/>
+    <mergeCell ref="E69:F69"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="B60:L60"/>
+    <mergeCell ref="B58:L58"/>
+    <mergeCell ref="B59:L59"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="B21:L21"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="B29:L29"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="O39:P39"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="O52:P52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="O43:P43"/>
+    <mergeCell ref="Q43:R43"/>
+    <mergeCell ref="O44:P44"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="O40:P40"/>
+    <mergeCell ref="O46:P46"/>
+    <mergeCell ref="B53:L53"/>
+    <mergeCell ref="O47:P47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="O48:P48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="O38:P38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="B57:L57"/>
+    <mergeCell ref="Q44:R44"/>
+    <mergeCell ref="O45:P45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="O41:P41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="B46:L46"/>
+    <mergeCell ref="B45:L45"/>
+    <mergeCell ref="B41:L41"/>
+    <mergeCell ref="B42:L42"/>
+    <mergeCell ref="B43:L43"/>
+    <mergeCell ref="B44:L44"/>
+    <mergeCell ref="B40:L40"/>
+    <mergeCell ref="B47:L47"/>
+    <mergeCell ref="B48:L48"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="O35:P35"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="O37:P37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="O30:P30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q26:R26"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="B5:S5"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="M14:S14"/>
+    <mergeCell ref="M15:S15"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="G13:S13"/>
+    <mergeCell ref="C11:S11"/>
+    <mergeCell ref="H12:M12"/>
+    <mergeCell ref="N12:S12"/>
+    <mergeCell ref="B10:S10"/>
+    <mergeCell ref="B2:S2"/>
+    <mergeCell ref="B3:S3"/>
+    <mergeCell ref="B4:S4"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="H7:S7"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="N8:S8"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="O119:P119"/>
+    <mergeCell ref="M123:N123"/>
+    <mergeCell ref="O123:P123"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="O120:P120"/>
+    <mergeCell ref="Q120:R120"/>
+    <mergeCell ref="B124:L124"/>
+    <mergeCell ref="M124:N124"/>
+    <mergeCell ref="O124:P124"/>
+    <mergeCell ref="Q124:R124"/>
+    <mergeCell ref="M122:N122"/>
+    <mergeCell ref="O122:P122"/>
+    <mergeCell ref="Q122:R122"/>
+    <mergeCell ref="Q123:R123"/>
+    <mergeCell ref="B122:L122"/>
+    <mergeCell ref="B123:L123"/>
+    <mergeCell ref="B121:L121"/>
+    <mergeCell ref="M121:N121"/>
+    <mergeCell ref="O121:P121"/>
+    <mergeCell ref="Q121:R121"/>
+    <mergeCell ref="B120:L120"/>
+    <mergeCell ref="Q119:R119"/>
+    <mergeCell ref="B119:L119"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="O117:P117"/>
+    <mergeCell ref="Q117:R117"/>
+    <mergeCell ref="Q118:R118"/>
+    <mergeCell ref="H109:J109"/>
+    <mergeCell ref="O109:P109"/>
+    <mergeCell ref="Q109:R109"/>
+    <mergeCell ref="K109:L109"/>
+    <mergeCell ref="B110:L110"/>
+    <mergeCell ref="B111:L111"/>
+    <mergeCell ref="B112:L112"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="O116:P116"/>
+    <mergeCell ref="Q116:R116"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="O118:P118"/>
+    <mergeCell ref="B117:L117"/>
+    <mergeCell ref="B118:L118"/>
+    <mergeCell ref="B116:L116"/>
+    <mergeCell ref="B114:L114"/>
+    <mergeCell ref="B115:L115"/>
+    <mergeCell ref="B113:L113"/>
+    <mergeCell ref="B103:L103"/>
+    <mergeCell ref="B101:L101"/>
+    <mergeCell ref="B102:S102"/>
+    <mergeCell ref="K104:L104"/>
+    <mergeCell ref="Q100:R100"/>
+    <mergeCell ref="O98:P98"/>
+    <mergeCell ref="Q98:R98"/>
+    <mergeCell ref="O99:P99"/>
+    <mergeCell ref="Q99:R99"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="M100:N100"/>
+    <mergeCell ref="O103:P103"/>
+    <mergeCell ref="Q103:R103"/>
+    <mergeCell ref="O104:P104"/>
+    <mergeCell ref="Q104:R104"/>
+    <mergeCell ref="Q101:R101"/>
+    <mergeCell ref="O101:P101"/>
+    <mergeCell ref="O100:P100"/>
+    <mergeCell ref="S94:S95"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="E87:F87"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="E91:F91"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="O93:P93"/>
+    <mergeCell ref="Q93:R93"/>
+    <mergeCell ref="O92:P92"/>
+    <mergeCell ref="Q92:R92"/>
+    <mergeCell ref="M98:N98"/>
+    <mergeCell ref="M99:N99"/>
+    <mergeCell ref="O96:P96"/>
+    <mergeCell ref="Q108:R108"/>
+    <mergeCell ref="Q105:R105"/>
+    <mergeCell ref="O106:P106"/>
+    <mergeCell ref="Q106:R106"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="H108:J108"/>
+    <mergeCell ref="M109:N109"/>
+    <mergeCell ref="K108:L108"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="H107:J107"/>
+    <mergeCell ref="K107:L107"/>
+    <mergeCell ref="O107:P107"/>
+    <mergeCell ref="Q107:R107"/>
+    <mergeCell ref="K105:L105"/>
+    <mergeCell ref="K106:L106"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="M77:N77"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="O108:P108"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="O67:P67"/>
+    <mergeCell ref="O68:P68"/>
+    <mergeCell ref="O69:P69"/>
+    <mergeCell ref="O70:P70"/>
+    <mergeCell ref="M92:N92"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="O84:P84"/>
+    <mergeCell ref="M76:N76"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M94:N95"/>
+    <mergeCell ref="O76:P76"/>
+    <mergeCell ref="B61:L61"/>
+    <mergeCell ref="M69:N69"/>
+    <mergeCell ref="M70:N70"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="B64:S64"/>
+    <mergeCell ref="Q62:R62"/>
+    <mergeCell ref="B63:S63"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="E67:F67"/>
+    <mergeCell ref="G66:L70"/>
+    <mergeCell ref="O66:P66"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="O65:P65"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="Q70:R70"/>
     <mergeCell ref="B71:L71"/>
     <mergeCell ref="B62:L62"/>
     <mergeCell ref="B65:L65"/>
@@ -12322,419 +12695,19 @@
     <mergeCell ref="O59:P59"/>
     <mergeCell ref="Q59:R59"/>
     <mergeCell ref="O62:P62"/>
-    <mergeCell ref="B61:L61"/>
-    <mergeCell ref="M69:N69"/>
-    <mergeCell ref="M70:N70"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="B64:S64"/>
-    <mergeCell ref="Q62:R62"/>
-    <mergeCell ref="B63:S63"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="E67:F67"/>
-    <mergeCell ref="G66:L70"/>
-    <mergeCell ref="O66:P66"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="O65:P65"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="M77:N77"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="O108:P108"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M68:N68"/>
-    <mergeCell ref="O67:P67"/>
-    <mergeCell ref="O68:P68"/>
-    <mergeCell ref="O69:P69"/>
-    <mergeCell ref="O70:P70"/>
-    <mergeCell ref="M92:N92"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="O84:P84"/>
-    <mergeCell ref="M76:N76"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M94:N95"/>
-    <mergeCell ref="O76:P76"/>
-    <mergeCell ref="Q108:R108"/>
-    <mergeCell ref="Q105:R105"/>
-    <mergeCell ref="O106:P106"/>
-    <mergeCell ref="Q106:R106"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="H108:J108"/>
-    <mergeCell ref="M109:N109"/>
-    <mergeCell ref="K108:L108"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="H107:J107"/>
-    <mergeCell ref="K107:L107"/>
-    <mergeCell ref="O107:P107"/>
-    <mergeCell ref="Q107:R107"/>
-    <mergeCell ref="K105:L105"/>
-    <mergeCell ref="K106:L106"/>
-    <mergeCell ref="S94:S95"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="E89:F89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="E91:F91"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="O93:P93"/>
-    <mergeCell ref="Q93:R93"/>
-    <mergeCell ref="O92:P92"/>
-    <mergeCell ref="Q92:R92"/>
-    <mergeCell ref="M98:N98"/>
-    <mergeCell ref="M99:N99"/>
-    <mergeCell ref="O96:P96"/>
-    <mergeCell ref="B103:L103"/>
-    <mergeCell ref="B101:L101"/>
-    <mergeCell ref="B102:S102"/>
-    <mergeCell ref="K104:L104"/>
-    <mergeCell ref="Q100:R100"/>
-    <mergeCell ref="O98:P98"/>
-    <mergeCell ref="Q98:R98"/>
-    <mergeCell ref="O99:P99"/>
-    <mergeCell ref="Q99:R99"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="M100:N100"/>
-    <mergeCell ref="O103:P103"/>
-    <mergeCell ref="Q103:R103"/>
-    <mergeCell ref="O104:P104"/>
-    <mergeCell ref="Q104:R104"/>
-    <mergeCell ref="Q101:R101"/>
-    <mergeCell ref="O101:P101"/>
-    <mergeCell ref="O100:P100"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="O117:P117"/>
-    <mergeCell ref="Q117:R117"/>
-    <mergeCell ref="Q118:R118"/>
-    <mergeCell ref="H109:J109"/>
-    <mergeCell ref="O109:P109"/>
-    <mergeCell ref="Q109:R109"/>
-    <mergeCell ref="K109:L109"/>
-    <mergeCell ref="B110:L110"/>
-    <mergeCell ref="B111:L111"/>
-    <mergeCell ref="B112:L112"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="O116:P116"/>
-    <mergeCell ref="Q116:R116"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="O118:P118"/>
-    <mergeCell ref="B117:L117"/>
-    <mergeCell ref="B118:L118"/>
-    <mergeCell ref="B116:L116"/>
-    <mergeCell ref="B114:L114"/>
-    <mergeCell ref="B115:L115"/>
-    <mergeCell ref="B113:L113"/>
-    <mergeCell ref="M119:N119"/>
-    <mergeCell ref="O119:P119"/>
-    <mergeCell ref="M123:N123"/>
-    <mergeCell ref="O123:P123"/>
-    <mergeCell ref="M120:N120"/>
-    <mergeCell ref="O120:P120"/>
-    <mergeCell ref="Q120:R120"/>
-    <mergeCell ref="B124:L124"/>
-    <mergeCell ref="M124:N124"/>
-    <mergeCell ref="O124:P124"/>
-    <mergeCell ref="Q124:R124"/>
-    <mergeCell ref="M122:N122"/>
-    <mergeCell ref="O122:P122"/>
-    <mergeCell ref="Q122:R122"/>
-    <mergeCell ref="Q123:R123"/>
-    <mergeCell ref="B122:L122"/>
-    <mergeCell ref="B123:L123"/>
-    <mergeCell ref="B121:L121"/>
-    <mergeCell ref="M121:N121"/>
-    <mergeCell ref="O121:P121"/>
-    <mergeCell ref="Q121:R121"/>
-    <mergeCell ref="B120:L120"/>
-    <mergeCell ref="Q119:R119"/>
-    <mergeCell ref="B119:L119"/>
-    <mergeCell ref="B2:S2"/>
-    <mergeCell ref="B3:S3"/>
-    <mergeCell ref="B4:S4"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="H7:S7"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="O9:S9"/>
-    <mergeCell ref="N8:S8"/>
-    <mergeCell ref="B5:S5"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="M14:S14"/>
-    <mergeCell ref="M15:S15"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="G13:S13"/>
-    <mergeCell ref="C11:S11"/>
-    <mergeCell ref="H12:M12"/>
-    <mergeCell ref="N12:S12"/>
-    <mergeCell ref="B10:S10"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="O35:P35"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="O37:P37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="B53:L53"/>
-    <mergeCell ref="O47:P47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="M48:N48"/>
-    <mergeCell ref="O48:P48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="O38:P38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="B57:L57"/>
-    <mergeCell ref="Q44:R44"/>
-    <mergeCell ref="O45:P45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="O41:P41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="B46:L46"/>
-    <mergeCell ref="B45:L45"/>
-    <mergeCell ref="B41:L41"/>
-    <mergeCell ref="B42:L42"/>
-    <mergeCell ref="B43:L43"/>
-    <mergeCell ref="B44:L44"/>
-    <mergeCell ref="B40:L40"/>
-    <mergeCell ref="B47:L47"/>
-    <mergeCell ref="B48:L48"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="O39:P39"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="O52:P52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="O43:P43"/>
-    <mergeCell ref="Q43:R43"/>
-    <mergeCell ref="O44:P44"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="O40:P40"/>
-    <mergeCell ref="O46:P46"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="E66:F66"/>
-    <mergeCell ref="B66:D70"/>
-    <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="B60:L60"/>
-    <mergeCell ref="B58:L58"/>
-    <mergeCell ref="B59:L59"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="B21:L21"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="B29:L29"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="B92:L92"/>
-    <mergeCell ref="B94:L94"/>
-    <mergeCell ref="B93:L93"/>
-    <mergeCell ref="B30:L30"/>
-    <mergeCell ref="B31:L31"/>
-    <mergeCell ref="B32:L32"/>
-    <mergeCell ref="B39:L39"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="B33:L33"/>
-    <mergeCell ref="B38:L38"/>
-    <mergeCell ref="B34:L34"/>
-    <mergeCell ref="B36:L36"/>
-    <mergeCell ref="B35:L35"/>
-    <mergeCell ref="B37:L37"/>
-    <mergeCell ref="B54:L54"/>
-    <mergeCell ref="B51:L51"/>
-    <mergeCell ref="B52:L52"/>
-    <mergeCell ref="B49:L49"/>
-    <mergeCell ref="B50:L50"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="B76:F82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="B86:D88"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:K72"/>
-    <mergeCell ref="B72:D75"/>
-    <mergeCell ref="G73:K73"/>
-    <mergeCell ref="G74:K74"/>
-    <mergeCell ref="G75:K75"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="E73:F73"/>
-    <mergeCell ref="E74:F74"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="B55:L55"/>
-    <mergeCell ref="B56:L56"/>
-    <mergeCell ref="Q76:R76"/>
-    <mergeCell ref="J76:L76"/>
-    <mergeCell ref="B89:D91"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="J85:L85"/>
-    <mergeCell ref="B83:L83"/>
-    <mergeCell ref="B84:L84"/>
-    <mergeCell ref="G85:I85"/>
-    <mergeCell ref="B85:F85"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="G76:I76"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="O75:P75"/>
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="O71:P71"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="O72:P72"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="O73:P73"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="O74:P74"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="M103:N103"/>
-    <mergeCell ref="M101:N101"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="O83:P83"/>
-    <mergeCell ref="Q83:R83"/>
-    <mergeCell ref="M78:N78"/>
-    <mergeCell ref="M79:N79"/>
-    <mergeCell ref="M80:N80"/>
-    <mergeCell ref="M81:N81"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="O85:P85"/>
-    <mergeCell ref="Q85:R85"/>
-    <mergeCell ref="Q84:R84"/>
-    <mergeCell ref="Q96:R96"/>
-    <mergeCell ref="O97:P97"/>
-    <mergeCell ref="Q97:R97"/>
-    <mergeCell ref="O94:P95"/>
-    <mergeCell ref="Q94:R95"/>
-    <mergeCell ref="O105:P105"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M54:N54"/>
+    <mergeCell ref="O53:P53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="O54:P54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="O51:P51"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="O49:P49"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="O50:P50"/>
+    <mergeCell ref="Q50:R50"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="H7" r:id="rId1" xr:uid="{435ECBC1-1E59-417E-BA8E-66B4E88BB41B}"/>
